--- a/datamining/final_data/sorted2000_nltk.xlsx
+++ b/datamining/final_data/sorted2000_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AHA2"/>
+  <dimension ref="A1:AGA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,49 +447,49 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>students</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>research</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>leadership</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>underachievement</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>school</t>
@@ -502,57 +502,57 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>practical</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>practical</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>wisdom</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>related</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>wisdom</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>children</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>article</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -567,342 +567,342 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>urban</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>dropouts</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>urban</t>
+          <t>work</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>upon</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>dropouts</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>mind</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>stories</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>scholars</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>characteristics</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>upon</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>young</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>identified</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>choices</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>compromises</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>left</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>females</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>undone</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>child</t>
-        </is>
-      </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>once</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>mind</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>scholars</t>
+          <t>gains</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>fields</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>stories</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>rising</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>rising</t>
+          <t>curve</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
+          <t>long-term</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>pyryt</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
           <t>iq</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>pyryt</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>gains</t>
-        </is>
-      </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>handbook</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>curve</t>
+          <t>investigating</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>long-term</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>investigating</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>high-ability</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>handbook</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>fields</t>
+          <t>underachieving</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t>stronger</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>content</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>preference</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
+          <t>haystacks</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>needles</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>plenty</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
           <t>popular</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>haystacks</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>needles</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>plenty</t>
-        </is>
-      </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
           <t>texts</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>underachieving</t>
+          <t>data</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>two</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>stronger</t>
+          <t>information</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>preference</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>thoughts</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>results</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>special</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>authentic</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>reasons</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>authentic</t>
+          <t>dissociation</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>reasons</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
@@ -922,12 +922,12 @@
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>dissociation</t>
+          <t>important</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>males</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
@@ -942,419 +942,419 @@
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>inquiry</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
+          <t>b.</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>findings</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>boys</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>jocelyn</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
           <t>1995</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>henry</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>thoughts</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>jocelyn</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>proceedings</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>symposium</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>used</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>proceedings</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>parents</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>wallace</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>iii</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>symposium</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>patterns</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>wallace</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>b.</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>global</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>dropout</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>different</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>level</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>males</t>
+          <t>make</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>dropout</t>
+          <t>family</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>men</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>way</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>also</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>disability</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>well</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>disability</t>
+          <t>processes</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>defining</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>potentially</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>defining</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>processes</t>
+          <t>alone</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>displayed</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>potentially</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>trips</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>trips</t>
+          <t>skill</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>skill</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>gay</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>secondary</t>
+          <t>convinced</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>responses</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>alone</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>adolescent</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>displayed</t>
+          <t>compensation</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>provided</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
           <t>college</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>compensation</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>nongifted</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>adults</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>provided</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>intelligent</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>using</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>among</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>sense</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>subscale</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
           <t>activities</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>adolescent</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>convinced</t>
-        </is>
-      </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>sense</t>
+          <t>state</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>services</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>responses</t>
+          <t>projects</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>gay</t>
+          <t>difficulty</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>10</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
+          <t>independent</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>unthinkable</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
           <t>oblique</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>subscale</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>observed</t>
-        </is>
-      </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
+          <t>cope</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
           <t>focus</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>first</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>intellectual</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>achievement</t>
@@ -1362,2392 +1362,2392 @@
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>collected</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
+          <t>disadvantaged</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>cases</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>subcategories</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>economically</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
           <t>category</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>independent</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>difficulty</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>projects</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>cases</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>six</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>assertions</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>experienced</t>
+          <t>mentors</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>assertions</t>
+          <t>mentorships</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>collected</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>consistent</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>economically</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>mentors</t>
+          <t>present</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>mentorships</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>subcategories</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>rrsl</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>chinese</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>behaviors</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>proposes</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>consistent</t>
+          <t>12</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>plucker</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>chinese</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>unthinkable</t>
+          <t>described</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>rrsl</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>cope</t>
+          <t>response</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>behaviors</t>
+          <t>low</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>proposes</t>
+          <t>highlight</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
+          <t>educational</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>callahan</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
           <t>given</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>highest</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>tomchin</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>group</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>callahan</t>
+          <t>despite</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>plucker</t>
+          <t>process</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>tomchin</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>address</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>inborn</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>friends</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>highlight</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>researchers</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>innate</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>describe</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>awareness</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>almost</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>attribution</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
           <t>identify</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>questions</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>almost</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>awareness</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
-        <is>
-          <t>despite</t>
-        </is>
-      </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>innate</t>
-        </is>
-      </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>attribution</t>
+          <t>together</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>yet</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>describe</t>
+          <t>major</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>friends</t>
+          <t>preschoolers</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>inborn</t>
+          <t>project</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>planned</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>sociocultural</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>discusses</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
           <t>successful</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
-        <is>
-          <t>paper</t>
-        </is>
-      </c>
-      <c r="IT1" s="1" t="inlineStr">
-        <is>
-          <t>either</t>
-        </is>
-      </c>
-      <c r="IU1" s="1" t="inlineStr">
-        <is>
-          <t>major</t>
-        </is>
-      </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>together</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>examined</t>
-        </is>
-      </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>many</t>
-        </is>
-      </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>yet</t>
+          <t>influenced</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>discusses</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>involvement</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>hebert</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>involvement</t>
+          <t>compensatory</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>succeed</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>hebert</t>
+          <t>include</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>working</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>influenced</t>
+          <t>report</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>families</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>sociocultural</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>shopping</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>preschoolers</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>characterized</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>five</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>characterized</t>
+          <t>features</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>support</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>investigate</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>minority</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
           <t>mainstream</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>succeed</t>
-        </is>
-      </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
+          <t>marginal</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>succeeded</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>piers-harris</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>orientation</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>based</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>association</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>subscales</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>generally</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>view</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>personnel</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>succeeded</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>generally</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>investigate</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>found</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>four</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>compensatory</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>view</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>levels</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>presented</t>
-        </is>
-      </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>orientation</t>
+          <t>aspirations</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>questionnaire</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>extracurricular</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>less</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>features</t>
+          <t>status</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>subscales</t>
+          <t>viable</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>piers-harris</t>
+          <t>underlying</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>must</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>need</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>personnel</t>
+          <t>regardless</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>considered</t>
+          <t>junior</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>extracurricular</t>
+          <t>raised</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>questionnaire</t>
+          <t>marching</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>aspirations</t>
+          <t>sides</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>regardless</t>
+          <t>illustrating</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>statistical</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>coin</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>junior</t>
+          <t>future</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>underlying</t>
+          <t>indirectly</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
+          <t>flip</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>directly</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>debate</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>contemporary</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>conceptual</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>beat</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>touches</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>assessments</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>areas</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>agree</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>might</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>prefer</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>approaches</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>drummers</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>kong</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
           <t>rating</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>kong</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaires</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>studies</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>hong</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>viable</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>indirectly</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>sides</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>touches</t>
-        </is>
-      </c>
-      <c r="LZ1" s="1" t="inlineStr">
-        <is>
-          <t>contemporary</t>
-        </is>
-      </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>illustrating</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>marching</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
-        <is>
-          <t>drummers</t>
-        </is>
-      </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>directly</t>
-        </is>
-      </c>
-      <c r="MF1" s="1" t="inlineStr">
-        <is>
-          <t>practice</t>
-        </is>
-      </c>
-      <c r="MG1" s="1" t="inlineStr">
-        <is>
-          <t>debate</t>
-        </is>
-      </c>
-      <c r="MH1" s="1" t="inlineStr">
-        <is>
-          <t>raised</t>
-        </is>
-      </c>
-      <c r="MI1" s="1" t="inlineStr">
-        <is>
-          <t>statistical</t>
-        </is>
-      </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>conceptual</t>
-        </is>
-      </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>coin</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>beat</t>
+          <t>decades</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>controversy</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>continues</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>approaches</t>
+          <t>clinicians</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>agree</t>
+          <t>clarify</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>authors</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>flip</t>
+          <t>attempt</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>explaining</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>area</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>student</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>questionnaires</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
+          <t>supports</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>enigma</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
           <t>measure</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>pursuing</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>inherent</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>stir</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>reviews</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>remains</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>likely</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>promising</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>lines</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>practitioners</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>go</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>inherent</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>interested</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>know</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>likely</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>lines</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>pursuing</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>promising</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>enigma</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>remains</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>reviews</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>stir</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>interviews</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>explaining</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>prefer</t>
+          <t>quo</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>really</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>decades</t>
+          <t>recognize</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>attempt</t>
+          <t>roles</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>time</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>authors</t>
+          <t>sufficient</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>clarify</t>
+          <t>viewing</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>clinicians</t>
+          <t>preparation</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>controversy</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>continues</t>
+          <t>uncomfortable</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>us</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>supports</t>
+          <t>usefulness</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>usual</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
+          <t>professionals</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>hardly</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>millenium</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>appropriate</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>survey</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>coming</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>21st</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>actions</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>advent</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>application</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>century</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>confronted</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>insider</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>choose</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>bisexual</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>rotation</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
           <t>balance</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>intellectually</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>wondering</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>suicidal</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>staff</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>sexual</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>retrospective</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>expressed</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>postpositivistic</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>narrative</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>feeling</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>lesbian</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>isolation</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>involved</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualizing</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>imaginative</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>concludes</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>reanalyzed</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>useful</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>shown</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>presents</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>offers</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>neglected</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>namely</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>largely</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>incentive</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>currently</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>ideation</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>adolescents</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>useful</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>suicidal</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>staff</t>
-        </is>
-      </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>sexual</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>viewing</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>usefulness</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>themes</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>wondering</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>concludes</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>kind</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>currently</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>shown</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>rotation</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>presents</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>offers</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>finally</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>neglected</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>namely</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>largely</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>incentive</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>survey</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualizing</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>reanalyzed</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>half</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>danger</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>carroll</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>analytic</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>educators</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>extended</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>correlations</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrating</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>extraction</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
         <is>
           <t>cognitive</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>ideation</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>lesbian</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>finding</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>likelihood</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>presence</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>maximum</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
         <is>
           <t>first-order</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>finding</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>extraction</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrating</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>correlations</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>carroll</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>purpose</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>analytic</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>offered</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>matrix</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>intelligences</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>indicators</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>illustrate</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
         <is>
           <t>extreme</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>half</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>narrative</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
         <is>
           <t>gardner</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>extended</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>expressed</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>feeling</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>coming</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>danger</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>isolation</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>retrospective</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>maximum</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>presence</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>matrix</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>bisexual</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>postpositivistic</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>girls</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>likelihood</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>involved</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>intelligences</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>indicators</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>imaginative</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>educators</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>illustrate</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>begin</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>careers</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
         <is>
           <t>central</t>
         </is>
       </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>persons</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>concern</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>emotionally</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>conclusion</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>disadvantage</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>intrinsic</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>aptitude</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>explain</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>piechoswki</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>reconceptualize</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>appropriately</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjustment</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>populations</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>possible</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>productivity</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>regarding</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>responsible</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>targeted</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>tension</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>well-rounded</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>follow-up</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>illuminates</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>kindergarten</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>gait</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>harlem</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>achievement/success</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>achieve</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>variety</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>utilized</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>relevant</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>alter</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
         <is>
           <t>assist</t>
         </is>
       </c>
-      <c r="RL1" s="1" t="inlineStr">
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrated</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>products</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>produce</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>librarians</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>exploring</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>extracting</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>affairs</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>connections</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
         <is>
           <t>constant</t>
         </is>
       </c>
-      <c r="RM1" s="1" t="inlineStr">
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>progressed</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>ill</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>istudents</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>forming</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>means</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>nontraditional</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>placement</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>postpositivist</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
         <is>
           <t>grant</t>
         </is>
       </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>appropriately</t>
-        </is>
-      </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>begin</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
+      <c r="UH1" s="1" t="inlineStr">
         <is>
           <t>contingencies</t>
         </is>
       </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>aptitude</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>sed</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>since</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>socially</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>synergy</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>test-data</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
         <is>
           <t>crucial</t>
         </is>
       </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>alter</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>adjusted</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>placed</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>conclusion</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>concern</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>extracting</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantage</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>socially</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>kindergarten</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>means</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>nontraditional</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>whose</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>synergy</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>since</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>connections</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>sed</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>postpositivist</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>progressed</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>risk</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>achievement/success</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>original</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>istudents</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>forming</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>ill</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>achieve</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>harlem</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>gait</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>follow-up</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>affairs</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>exploring</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrated</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>explain</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>emotionally</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
+      <c r="UR1" s="1" t="inlineStr">
         <is>
           <t>conditional</t>
         </is>
       </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>test-data</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
+      <c r="US1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>well-rounded</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>revealed</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>nonexistent</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>nonjudgmental</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>open-minded</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>personalized</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>promise</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>mentor</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>realizing</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>underscore</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>strength</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>socioeconomic</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>reinforced</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>social/emotional</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
         <is>
           <t>mentor-protege</t>
         </is>
       </c>
-      <c r="TL1" s="1" t="inlineStr">
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
       </c>
-      <c r="TM1" s="1" t="inlineStr">
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>attendent</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>background</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>several</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>developing</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>dominant</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>effectiveness</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>focusing</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>interest-based</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
         <is>
           <t>advocacy</t>
         </is>
       </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>attendent</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>background</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>tension</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>developing</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>dominant</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveness</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>focusing</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>interest-based</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>literature</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>productivity</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>possible</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>populations</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>illuminates</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>variety</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>utilized</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>relevant</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>products</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>piechoswki</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>produce</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>only</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>librarians</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>intrinsic</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>persons</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>mentor</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>mentorship</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>several</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>targeted</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>responsible</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>reconceptualize</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>underscore</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>strength</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>placement</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>socioeconomic</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>social/emotional</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>nonexistent</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>reverse</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>revealed</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>promise</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>nonjudgmental</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>personalized</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>realizing</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>open-minded</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>reinforced</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>progress</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>quo</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>uncomfortable</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>recognize</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>really</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>ugly</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>roles</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>nels:88</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>obtain</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>developmental</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>mother</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>repetitive</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>offer</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>deficits</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>socioeconomic-status</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>school-related</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>unusual</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>guidelines</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>disorder</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
         <is>
           <t>ways</t>
         </is>
       </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>unusual</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>scope</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>developmental</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>professionals</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>preparation</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>millenium</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>21st</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>actions</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>advent</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>application</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>appropriate</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>business</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>century</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>choose</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
       <c r="WU1" s="1" t="inlineStr">
         <is>
-          <t>confronted</t>
+          <t>regression</t>
         </is>
       </c>
       <c r="WV1" s="1" t="inlineStr">
         <is>
-          <t>usual</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="WW1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>pregnancy</t>
         </is>
       </c>
       <c r="WX1" s="1" t="inlineStr">
         <is>
-          <t>hardly</t>
+          <t>racial</t>
         </is>
       </c>
       <c r="WY1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>logistic</t>
         </is>
       </c>
       <c r="WZ1" s="1" t="inlineStr">
         <is>
-          <t>insider</t>
+          <t>social</t>
         </is>
       </c>
       <c r="XA1" s="1" t="inlineStr">
         <is>
-          <t>intensity</t>
+          <t>indicted</t>
         </is>
       </c>
       <c r="XB1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="XC1" s="1" t="inlineStr">
         <is>
-          <t>sufficient</t>
+          <t>pervasive</t>
         </is>
       </c>
       <c r="XD1" s="1" t="inlineStr">
         <is>
+          <t>missed</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>groups</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
           <t>1988</t>
         </is>
       </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>differentiating</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>attributed</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>child-rearing</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>comprehensive</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
         <is>
           <t>wrongly</t>
         </is>
       </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>mother</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>nels:88</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>obtain</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>offer</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>participated</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>pregnancy</t>
-        </is>
-      </c>
       <c r="XN1" s="1" t="inlineStr">
         <is>
-          <t>racial</t>
+          <t>economic</t>
         </is>
       </c>
       <c r="XO1" s="1" t="inlineStr">
         <is>
-          <t>differentiating</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="XP1" s="1" t="inlineStr">
         <is>
-          <t>logistic</t>
+          <t>father</t>
         </is>
       </c>
       <c r="XQ1" s="1" t="inlineStr">
         <is>
-          <t>socioeconomic-status</t>
+          <t>female</t>
         </is>
       </c>
       <c r="XR1" s="1" t="inlineStr">
         <is>
-          <t>missed</t>
+          <t>sharp</t>
         </is>
       </c>
       <c r="XS1" s="1" t="inlineStr">
         <is>
-          <t>disorder</t>
+          <t>discouraging</t>
         </is>
       </c>
       <c r="XT1" s="1" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>distinctive</t>
         </is>
       </c>
       <c r="XU1" s="1" t="inlineStr">
         <is>
-          <t>guidelines</t>
+          <t>suggests</t>
         </is>
       </c>
       <c r="XV1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>encouragement</t>
         </is>
       </c>
       <c r="XW1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>giving</t>
         </is>
       </c>
       <c r="XX1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>much</t>
         </is>
       </c>
       <c r="XY1" s="1" t="inlineStr">
         <is>
-          <t>attributed</t>
+          <t>self-serving</t>
         </is>
       </c>
       <c r="XZ1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>schooling</t>
         </is>
       </c>
       <c r="YA1" s="1" t="inlineStr">
         <is>
-          <t>school-related</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="YB1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>often</t>
         </is>
       </c>
       <c r="YC1" s="1" t="inlineStr">
         <is>
-          <t>repetitive</t>
+          <t>musically</t>
         </is>
       </c>
       <c r="YD1" s="1" t="inlineStr">
         <is>
-          <t>child-rearing</t>
+          <t>members</t>
         </is>
       </c>
       <c r="YE1" s="1" t="inlineStr">
         <is>
-          <t>comprehensive</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="YF1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>deal</t>
         </is>
       </c>
       <c r="YG1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>good</t>
         </is>
       </c>
       <c r="YH1" s="1" t="inlineStr">
         <is>
-          <t>pervasive</t>
+          <t>descriptive</t>
         </is>
       </c>
       <c r="YI1" s="1" t="inlineStr">
         <is>
-          <t>indicted</t>
+          <t>ability-related</t>
         </is>
       </c>
       <c r="YJ1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="YK1" s="1" t="inlineStr">
         <is>
-          <t>deficits</t>
+          <t>lists</t>
         </is>
       </c>
       <c r="YL1" s="1" t="inlineStr">
         <is>
-          <t>economic</t>
+          <t>mere</t>
         </is>
       </c>
       <c r="YM1" s="1" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="YN1" s="1" t="inlineStr">
         <is>
-          <t>mere</t>
+          <t>model</t>
         </is>
       </c>
       <c r="YO1" s="1" t="inlineStr">
@@ -3757,1102 +3757,972 @@
       </c>
       <c r="YP1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>performed</t>
         </is>
       </c>
       <c r="YQ1" s="1" t="inlineStr">
         <is>
-          <t>middle</t>
+          <t>preschool</t>
         </is>
       </c>
       <c r="YR1" s="1" t="inlineStr">
         <is>
+          <t>preschool-aged</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>problem-solving</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>representing</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>routes</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>same-ability</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>store</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>variance</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>within-subjects</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>manova</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>indicates</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>concerning</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>causal</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>attributions</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>attributing</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>acquired</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>accomplishments</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>accomplished</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>yields</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>across</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>addition</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>average-ability</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>basis</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>equally</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>grocery</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
           <t>impact</t>
         </is>
       </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>manova</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>accomplished</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>accomplishments</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>attributing</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>attributions</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>acquired</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>preschool-aged</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>performed</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>preschool</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>concerning</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>problem-solving</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>representing</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>routes</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>same-ability</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>series</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>store</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>subjects</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>within-subjects</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>indicates</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>causal</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
+      <c r="ZX1" s="1" t="inlineStr">
         <is>
           <t>surprising</t>
         </is>
       </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>schooling</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>self-serving</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>sharp</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>suggests</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>yields</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
+      <c r="ZY1" s="1" t="inlineStr">
         <is>
           <t>ordinary</t>
         </is>
       </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>lists</t>
-        </is>
-      </c>
       <c r="ZZ1" s="1" t="inlineStr">
         <is>
-          <t>last</t>
+          <t>achieving</t>
         </is>
       </c>
       <c r="AAA1" s="1" t="inlineStr">
         <is>
-          <t>average-ability</t>
+          <t>below-average</t>
         </is>
       </c>
       <c r="AAB1" s="1" t="inlineStr">
         <is>
-          <t>basis</t>
+          <t>population</t>
         </is>
       </c>
       <c r="AAC1" s="1" t="inlineStr">
         <is>
-          <t>equally</t>
+          <t>masked</t>
         </is>
       </c>
       <c r="AAD1" s="1" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>mask</t>
         </is>
       </c>
       <c r="AAE1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="AAF1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>latter</t>
         </is>
       </c>
       <c r="AAG1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="AAH1" s="1" t="inlineStr">
         <is>
-          <t>giving</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="AAI1" s="1" t="inlineStr">
         <is>
-          <t>deal</t>
+          <t>employing</t>
         </is>
       </c>
       <c r="AAJ1" s="1" t="inlineStr">
         <is>
-          <t>descriptive</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="AAK1" s="1" t="inlineStr">
         <is>
-          <t>discouraging</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="AAL1" s="1" t="inlineStr">
         <is>
-          <t>distinctive</t>
+          <t>368</t>
         </is>
       </c>
       <c r="AAM1" s="1" t="inlineStr">
         <is>
-          <t>musically</t>
+          <t>height-ended</t>
         </is>
       </c>
       <c r="AAN1" s="1" t="inlineStr">
         <is>
-          <t>encouragement</t>
+          <t>graders</t>
         </is>
       </c>
       <c r="AAO1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>gestalt</t>
         </is>
       </c>
       <c r="AAP1" s="1" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>extent</t>
         </is>
       </c>
       <c r="AAQ1" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="AAR1" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>predicted</t>
         </is>
       </c>
       <c r="AAS1" s="1" t="inlineStr">
         <is>
-          <t>ability-related</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="AAT1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>conception</t>
         </is>
       </c>
       <c r="AAU1" s="1" t="inlineStr">
         <is>
-          <t>members</t>
+          <t>clinical</t>
         </is>
       </c>
       <c r="AAV1" s="1" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="AAW1" s="1" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>making</t>
         </is>
       </c>
       <c r="AAX1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>administered</t>
         </is>
       </c>
       <c r="AAY1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="AAZ1" s="1" t="inlineStr">
         <is>
-          <t>employing</t>
+          <t>accommodation</t>
         </is>
       </c>
       <c r="ABA1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="ABB1" s="1" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>rated</t>
         </is>
       </c>
       <c r="ABC1" s="1" t="inlineStr">
         <is>
-          <t>latter</t>
+          <t>reporting</t>
         </is>
       </c>
       <c r="ABD1" s="1" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>reis</t>
         </is>
       </c>
       <c r="ABE1" s="1" t="inlineStr">
         <is>
+          <t>integrated</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>larger</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>maxfield</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>meeting</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>multicultural</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>needs</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>keener</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>ratley</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>schools</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
           <t>sensitivity</t>
         </is>
       </c>
-      <c r="ABF1" s="1" t="inlineStr">
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>incorporated</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>subset</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>insights</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>summed</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>supportive</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>similar</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>hidden</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>believed</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>lives</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>cognitive/learning</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>understanding</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>sternberg</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>tacit</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
         <is>
           <t>usually</t>
         </is>
       </c>
-      <c r="ABG1" s="1" t="inlineStr">
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>university</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>synonymous</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>studied</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>specific</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>self-advocacy</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>remediation</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>postsecondary</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
         <is>
           <t>296</t>
         </is>
       </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>graders</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>gestalt</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>extent</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>eight</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>conception</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>clinical</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>broad</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>administered</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>achieving</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>overcome</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>opportunities</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>metacognition</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>underlie</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>smartness</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>meaning</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
         <is>
           <t>along</t>
         </is>
       </c>
-      <c r="ABU1" s="1" t="inlineStr">
+      <c r="ADD1" s="1" t="inlineStr">
         <is>
           <t>appreciation</t>
         </is>
       </c>
-      <c r="ABV1" s="1" t="inlineStr">
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>notions</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>relate</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
         <is>
           <t>chronicles</t>
         </is>
       </c>
-      <c r="ABW1" s="1" t="inlineStr">
+      <c r="ADI1" s="1" t="inlineStr">
         <is>
           <t>contributed</t>
         </is>
       </c>
-      <c r="ABX1" s="1" t="inlineStr">
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>singapore</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>inner</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
         <is>
           <t>design</t>
         </is>
       </c>
-      <c r="ABY1" s="1" t="inlineStr">
+      <c r="ADM1" s="1" t="inlineStr">
         <is>
           <t>diaz</t>
         </is>
       </c>
-      <c r="ABZ1" s="1" t="inlineStr">
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>scrutinizing</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
         <is>
           <t>ethnographic</t>
         </is>
       </c>
-      <c r="ACA1" s="1" t="inlineStr">
+      <c r="ADP1" s="1" t="inlineStr">
         <is>
           <t>following</t>
         </is>
       </c>
-      <c r="ACB1" s="1" t="inlineStr">
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>shed</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>discussed</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>diagnosed</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>extensive</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>faced</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>examples</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>functions</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>environmental</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>executive</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>incorporating</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>counseling</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
         <is>
           <t>heightened</t>
         </is>
       </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>incorporated</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>height-ended</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>hidden</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>university</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>scrutinizing</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>understanding</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>underlie</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>tacit</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>sternberg</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>solution</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>smartness</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>singapore</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>shed</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>insights</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>relate</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>predicted</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>point</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>notions</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>meaning</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>lives</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>keener</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>inner</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>integrated</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>larger</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>incorporating</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive/learning</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>counseling</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>diagnosed</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>discussed</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>environmental</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>examples</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>executive</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>extensive</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>faced</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>functions</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>instruction</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>life</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>metacognition</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>opportunities</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>overcome</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>plan</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>postsecondary</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>remediation</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>self-advocacy</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>specific</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>synonymous</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>below-average</t>
-        </is>
-      </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>believed</t>
+          <t>testifying</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
-          <t>accommodation</t>
+          <t>self-report</t>
         </is>
       </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>masked</t>
+          <t>self-ratings</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>maxfield</t>
+          <t>self-efficacy</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>novel</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>multicultural</t>
+          <t>training</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>roets</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>paucity</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>ratley</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>reis</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>poets</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>mask</t>
+          <t>openness</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>assessed</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>subset</t>
+          <t>repeated</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>monitor</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>supportive</t>
+          <t>aspiring</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>complexity</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>summed</t>
+          <t>convergent</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>similar</t>
+          <t>acceptable</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>could</t>
         </is>
       </c>
       <c r="AEY1" s="1" t="inlineStr">
         <is>
-          <t>reporting</t>
+          <t>emerged</t>
         </is>
       </c>
       <c r="AEZ1" s="1" t="inlineStr">
         <is>
-          <t>rated</t>
+          <t>163</t>
         </is>
       </c>
       <c r="AFA1" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="AFB1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>behavioral</t>
         </is>
       </c>
       <c r="AFC1" s="1" t="inlineStr">
         <is>
-          <t>lower</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="AFD1" s="1" t="inlineStr">
         <is>
+          <t>evidence</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>assessment</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>validity</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>evidence</t>
-        </is>
-      </c>
       <c r="AFG1" s="1" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>identifiable</t>
         </is>
       </c>
       <c r="AFH1" s="1" t="inlineStr">
         <is>
-          <t>acceptable</t>
+          <t>organized-flexible</t>
         </is>
       </c>
       <c r="AFI1" s="1" t="inlineStr">
         <is>
-          <t>aspiring</t>
+          <t>wer</t>
         </is>
       </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>assessed</t>
+          <t>tp</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>thinking-feeling</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>temperament-based</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>behavioral</t>
+          <t>style</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>complexity</t>
+          <t>ssq</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>convergent</t>
+          <t>preferences</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>extroverted-introverted</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>dimensions</t>
+          <t>organized</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>emerged</t>
+          <t>non-gifted</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>measured</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>assessing</t>
+          <t>ages</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>self-report</t>
+          <t>1,554</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>identifiable</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>novel</t>
+          <t>gifted-by-gender</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>openness</t>
+          <t>furthermore</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>poets</t>
+          <t>flexible</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>reliability</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>repeated</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>roets</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>self-efficacy</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>self-ratings</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>testifying</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
           <t>interactions</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>gifted-by-gender</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>furthermore</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>compared</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>flexible</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>extroverted-introverted</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>non-gifted</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>measured</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>temperament-based</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>1,554</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>organized</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>organized-flexible</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>preferences</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>ssq</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>style</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>thinking-feeling</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>ages</t>
         </is>
       </c>
     </row>
@@ -4867,40 +4737,40 @@
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2.84</v>
+        <v>1.11</v>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>0.9700000000000002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9300000000000002</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="I2" t="n">
         <v>0.8700000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8600000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="K2" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="L2" t="n">
         <v>0.76</v>
       </c>
       <c r="M2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.75</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.74</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="P2" t="n">
         <v>0.62</v>
@@ -4909,28 +4779,28 @@
         <v>0.62</v>
       </c>
       <c r="R2" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="V2" t="n">
         <v>0.5800000000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="Z2" t="n">
         <v>0.52</v>
@@ -4939,55 +4809,55 @@
         <v>0.52</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.47</v>
       </c>
       <c r="AK2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0.46</v>
       </c>
-      <c r="AL2" t="n">
-        <v>0.45</v>
-      </c>
       <c r="AM2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AO2" t="n">
         <v>0.45</v>
       </c>
       <c r="AP2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>0.44</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>0.43</v>
-      </c>
       <c r="AR2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="AS2" t="n">
         <v>0.43</v>
@@ -5002,22 +4872,22 @@
         <v>0.43</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AX2" t="n">
         <v>0.42</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BC2" t="n">
         <v>0.41</v>
@@ -5035,13 +4905,13 @@
         <v>0.41</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BK2" t="n">
         <v>0.4</v>
@@ -5050,31 +4920,31 @@
         <v>0.4</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="BV2" t="n">
         <v>0.37</v>
@@ -5098,46 +4968,46 @@
         <v>0.37</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CJ2" t="n">
         <v>0.35</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CN2" t="n">
         <v>0.34</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CQ2" t="n">
         <v>0.33</v>
@@ -5170,7 +5040,7 @@
         <v>0.32</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DB2" t="n">
         <v>0.31</v>
@@ -5212,79 +5082,79 @@
         <v>0.31</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DT2" t="n">
         <v>0.3</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EN2" t="n">
         <v>0.26</v>
@@ -5293,22 +5163,22 @@
         <v>0.26</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EV2" t="n">
         <v>0.25</v>
@@ -5341,10 +5211,10 @@
         <v>0.25</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FH2" t="n">
         <v>0.24</v>
@@ -5365,19 +5235,19 @@
         <v>0.24</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FS2" t="n">
         <v>0.23</v>
@@ -5452,19 +5322,19 @@
         <v>0.22</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GV2" t="n">
         <v>0.21</v>
@@ -5482,34 +5352,34 @@
         <v>0.21</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HK2" t="n">
         <v>0.2</v>
@@ -5527,31 +5397,31 @@
         <v>0.2</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HY2" t="n">
         <v>0.19</v>
@@ -5590,25 +5460,25 @@
         <v>0.19</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IR2" t="n">
         <v>0.18</v>
@@ -5635,16 +5505,16 @@
         <v>0.18</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="JD2" t="n">
         <v>0.17</v>
@@ -5680,31 +5550,31 @@
         <v>0.17</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JX2" t="n">
         <v>0.16</v>
@@ -5767,31 +5637,31 @@
         <v>0.16</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LA2" t="n">
         <v>0.15</v>
@@ -5809,31 +5679,31 @@
         <v>0.15</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LO2" t="n">
         <v>0.14</v>
@@ -5902,43 +5772,43 @@
         <v>0.14</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MX2" t="n">
         <v>0.13</v>
@@ -5995,49 +5865,49 @@
         <v>0.13</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OE2" t="n">
         <v>0.12</v>
@@ -6286,40 +6156,40 @@
         <v>0.12</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RP2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="RU2" t="n">
         <v>0.11</v>
@@ -6631,37 +6501,37 @@
         <v>0.11</v>
       </c>
       <c r="VT2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="VU2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="VV2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="VW2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="VX2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="VY2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="VZ2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WA2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WB2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WC2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WD2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="WE2" t="n">
         <v>0.1</v>
@@ -6781,70 +6651,70 @@
         <v>0.1</v>
       </c>
       <c r="XR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="YN2" t="n">
         <v>0.09</v>
@@ -6961,73 +6831,73 @@
         <v>0.09</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAW2" t="n">
         <v>0.08</v>
@@ -7288,79 +7158,79 @@
         <v>0.08</v>
       </c>
       <c r="AEE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AES2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AFD2" t="n">
         <v>0.07000000000000001</v>
@@ -7375,141 +7245,63 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AGB2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AGC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AGD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AGE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AGF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AGG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGL2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AGZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AHA2" t="n">
         <v>0.06</v>
       </c>
     </row>
